--- a/Figure 1/Fig1 Data.xlsx
+++ b/Figure 1/Fig1 Data.xlsx
@@ -47533,7 +47533,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47652,7 +47652,7 @@
         <v>509</v>
       </c>
       <c r="C12" s="118" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D12" s="105"/>
     </row>
@@ -47662,7 +47662,7 @@
         <v>510</v>
       </c>
       <c r="C13" s="122" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D13" s="105"/>
     </row>

--- a/Figure 1/Fig1 Data.xlsx
+++ b/Figure 1/Fig1 Data.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="513">
   <si>
     <t>internal_WD</t>
   </si>
@@ -41832,6 +41832,46 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color rgb="FFF8766D"/>
         <rFont val="Courier New"/>
         <family val="3"/>
@@ -41842,249 +41882,221 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFF8766D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00BFC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00BFC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00BFC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00BFC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00BFC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00BFC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00BFC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00BFC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00BFC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00BFC4"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00BFC4"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00BFC4"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00BFC4"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00BFC4"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00BFC4"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00BFC4"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00BFC4"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00BFC4"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>.........</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>.........</t>
+      <t>12</t>
     </r>
   </si>
 </sst>
@@ -47530,10 +47542,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47569,113 +47581,117 @@
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="105"/>
       <c r="B4" s="123" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C4" s="118" t="s">
-        <v>511</v>
+        <v>467</v>
       </c>
       <c r="D4" s="105"/>
     </row>
     <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="105"/>
       <c r="B5" s="123" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C5" s="118" t="s">
-        <v>468</v>
+        <v>501</v>
       </c>
       <c r="D5" s="105"/>
     </row>
     <row r="6" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="105"/>
       <c r="B6" s="123" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C6" s="118" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D6" s="105"/>
     </row>
     <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="105"/>
       <c r="B7" s="123" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C7" s="118" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D7" s="105"/>
     </row>
     <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="105"/>
       <c r="B8" s="123" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C8" s="118" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D8" s="105"/>
     </row>
     <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="105"/>
       <c r="B9" s="123" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C9" s="118" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D9" s="105"/>
     </row>
     <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="105"/>
       <c r="B10" s="123" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C10" s="118" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D10" s="105"/>
     </row>
     <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="105"/>
       <c r="B11" s="123" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C11" s="118" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D11" s="105"/>
     </row>
     <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="105"/>
       <c r="B12" s="123" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C12" s="118" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D12" s="105"/>
     </row>
     <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="105"/>
-      <c r="B13" s="125" t="s">
-        <v>510</v>
-      </c>
-      <c r="C13" s="122" t="s">
-        <v>497</v>
+      <c r="B13" s="123" t="s">
+        <v>511</v>
+      </c>
+      <c r="C13" s="118" t="s">
+        <v>493</v>
       </c>
       <c r="D13" s="105"/>
     </row>
-    <row r="14" spans="1:4" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="105"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="103"/>
+      <c r="B14" s="125" t="s">
+        <v>512</v>
+      </c>
+      <c r="C14" s="122" t="s">
+        <v>497</v>
+      </c>
       <c r="D14" s="105"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="105"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="105"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -47683,6 +47699,12 @@
       <c r="B16" s="105"/>
       <c r="C16" s="105"/>
       <c r="D16" s="105"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="105"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
